--- a/WIP_outputs_optimisation_custom.xlsx
+++ b/WIP_outputs_optimisation_custom.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,28 +444,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0378089211675134</v>
+        <v>0.1852904725172569</v>
       </c>
       <c r="C2">
-        <v>9.651139748291232</v>
+        <v>8.115593631060179</v>
       </c>
       <c r="D2">
-        <v>2.604689531716553</v>
+        <v>3.346357535337802</v>
       </c>
       <c r="E2">
-        <v>11.61193955618887</v>
+        <v>13.93863149905029</v>
       </c>
       <c r="F2">
-        <v>33.33078228734311</v>
+        <v>31.35664327227182</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>90742331395.10307</v>
+        <v>84919097014.25925</v>
       </c>
       <c r="I2">
-        <v>100396125609.6414</v>
+        <v>94296351698.93303</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -479,28 +479,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1085916085213898</v>
+        <v>0.6430740511735359</v>
       </c>
       <c r="C3">
-        <v>18.90190539574485</v>
+        <v>21.0778076648316</v>
       </c>
       <c r="D3">
-        <v>3.845768487201804</v>
+        <v>2.332619033092524</v>
       </c>
       <c r="E3">
-        <v>11.79576019450565</v>
+        <v>10.18090776121786</v>
       </c>
       <c r="F3">
-        <v>33.6132386310005</v>
+        <v>31.90433105341481</v>
       </c>
       <c r="G3">
-        <v>29894926265.52046</v>
+        <v>56166773677.43803</v>
       </c>
       <c r="H3">
-        <v>25256729754.54665</v>
+        <v>278342036.7269922</v>
       </c>
       <c r="I3">
-        <v>62411627151.14286</v>
+        <v>62376119005.14106</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -514,28 +514,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1328351433379949</v>
+        <v>0.7094288550566084</v>
       </c>
       <c r="C4">
-        <v>19.96506381488723</v>
+        <v>18.4099040190732</v>
       </c>
       <c r="D4">
-        <v>3.84706599278277</v>
+        <v>3.036001359008221</v>
       </c>
       <c r="E4">
-        <v>10.4582291788713</v>
+        <v>12.20420376626922</v>
       </c>
       <c r="F4">
-        <v>34.87127054820063</v>
+        <v>32.86446845411987</v>
       </c>
       <c r="G4">
-        <v>41988350105.2394</v>
+        <v>177641522987.82</v>
       </c>
       <c r="H4">
-        <v>14626739691.95409</v>
+        <v>440400452.1712334</v>
       </c>
       <c r="I4">
-        <v>63617183094.74265</v>
+        <v>199608669951.4375</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -549,243 +549,33 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3219107647123712</v>
+        <v>0.8680082502510337</v>
       </c>
       <c r="C5">
-        <v>11.23704594663451</v>
+        <v>22.37146375150644</v>
       </c>
       <c r="D5">
-        <v>2.643112776082847</v>
+        <v>2.833801455947056</v>
       </c>
       <c r="E5">
-        <v>11.62471141062404</v>
+        <v>13.00726277875406</v>
       </c>
       <c r="F5">
-        <v>32.60539887412736</v>
+        <v>30.29909187131385</v>
       </c>
       <c r="G5">
-        <v>1860045751.462645</v>
+        <v>132483495389.3125</v>
       </c>
       <c r="H5">
-        <v>67007426082.76793</v>
+        <v>2022039.508653594</v>
       </c>
       <c r="I5">
-        <v>77501243277.51553</v>
+        <v>160590908914.5361</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.4902101402255853</v>
-      </c>
-      <c r="C6">
-        <v>19.03363862162525</v>
-      </c>
-      <c r="D6">
-        <v>3.722712134114515</v>
-      </c>
-      <c r="E6">
-        <v>12.42311940715384</v>
-      </c>
-      <c r="F6">
-        <v>30.35453902722338</v>
-      </c>
-      <c r="G6">
-        <v>66895995217.68074</v>
-      </c>
-      <c r="H6">
-        <v>618001414.7785347</v>
-      </c>
-      <c r="I6">
-        <v>73697295246.77168</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.549847152384658</v>
-      </c>
-      <c r="C7">
-        <v>22.40360329527216</v>
-      </c>
-      <c r="D7">
-        <v>3.756772299899469</v>
-      </c>
-      <c r="E7">
-        <v>10.28469327884904</v>
-      </c>
-      <c r="F7">
-        <v>32.61878378305548</v>
-      </c>
-      <c r="G7">
-        <v>131337225094.5074</v>
-      </c>
-      <c r="H7">
-        <v>163929577.9497541</v>
-      </c>
-      <c r="I7">
-        <v>147262355681.5958</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.7801858092304222</v>
-      </c>
-      <c r="C8">
-        <v>18.39835018827788</v>
-      </c>
-      <c r="D8">
-        <v>2.671011767670113</v>
-      </c>
-      <c r="E8">
-        <v>13.97732926646189</v>
-      </c>
-      <c r="F8">
-        <v>32.84800463194797</v>
-      </c>
-      <c r="G8">
-        <v>136291900038.9424</v>
-      </c>
-      <c r="H8">
-        <v>588873635.6446198</v>
-      </c>
-      <c r="I8">
-        <v>160779929850.0575</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.8143057614210101</v>
-      </c>
-      <c r="C9">
-        <v>16.86095142934631</v>
-      </c>
-      <c r="D9">
-        <v>3.639915232588566</v>
-      </c>
-      <c r="E9">
-        <v>11.20079317170428</v>
-      </c>
-      <c r="F9">
-        <v>33.42133473168924</v>
-      </c>
-      <c r="G9">
-        <v>61042921439.2971</v>
-      </c>
-      <c r="H9">
-        <v>221158447.2534962</v>
-      </c>
-      <c r="I9">
-        <v>67267624531.51385</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.8474951253485408</v>
-      </c>
-      <c r="C10">
-        <v>13.09136123085012</v>
-      </c>
-      <c r="D10">
-        <v>3.956049581012698</v>
-      </c>
-      <c r="E10">
-        <v>10.29889618477</v>
-      </c>
-      <c r="F10">
-        <v>31.37495537618123</v>
-      </c>
-      <c r="G10">
-        <v>79387153011.71936</v>
-      </c>
-      <c r="H10">
-        <v>543409700.8175333</v>
-      </c>
-      <c r="I10">
-        <v>86805827795.48051</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.9859378125374999</v>
-      </c>
-      <c r="C11">
-        <v>8.965842274182727</v>
-      </c>
-      <c r="D11">
-        <v>3.447294249338444</v>
-      </c>
-      <c r="E11">
-        <v>11.61658318245119</v>
-      </c>
-      <c r="F11">
-        <v>34.23507136054678</v>
-      </c>
-      <c r="G11">
-        <v>82901873444.17113</v>
-      </c>
-      <c r="H11">
-        <v>1234838666.835214</v>
-      </c>
-      <c r="I11">
-        <v>91432197863.50703</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
         <v>1</v>
       </c>
     </row>
